--- a/Arrears/MyFiles/arrears.xlsx
+++ b/Arrears/MyFiles/arrears.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -1131,6 +1131,31 @@
         <v>5613.75</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>House_Allowance</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>44208</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E28" t="n">
+        <v>56778</v>
+      </c>
+      <c r="F28" t="n">
+        <v>34556</v>
+      </c>
+      <c r="G28" t="n">
+        <v>716.8000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
